--- a/sample/reception_list_sample.xlsx
+++ b/sample/reception_list_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\medcheck\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75BFB0C-3C5C-4AAB-BEAB-ED5556AE17D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF1C0FB-EF51-43F3-A6A9-88DD647D2F51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="0" windowWidth="19008" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="20076" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="checkup_reception_list.xlsx" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
   <si>
     <t>No</t>
   </si>
@@ -420,11 +420,30 @@
   <si>
     <t>デルタアミノレブリン酸</t>
   </si>
+  <si>
+    <t>2019/8/20</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1987/1/1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1991/5/3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1980/12/10</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -528,13 +547,13 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -845,7 +864,7 @@
   <dimension ref="A1:AV4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,148 +901,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AI1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AK1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AL1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AM1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AN1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AO1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AP1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AR1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AS1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AT1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AU1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AV1" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1049,15 +1068,15 @@
       <c r="G2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="7">
-        <v>31778</v>
+      <c r="H2" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="I2" s="2">
         <v>32</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="7">
-        <v>43697</v>
+      <c r="K2" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>45</v>
@@ -1075,7 +1094,7 @@
       <c r="Q2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="9"/>
+      <c r="R2" s="8"/>
       <c r="S2" s="2" t="s">
         <v>47</v>
       </c>
@@ -1111,7 +1130,7 @@
         <v>47</v>
       </c>
       <c r="AE2" s="2"/>
-      <c r="AF2" s="9"/>
+      <c r="AF2" s="8"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -1120,7 +1139,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
-      <c r="AO2" s="9"/>
+      <c r="AO2" s="8"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
@@ -1151,15 +1170,15 @@
       <c r="G3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="7">
-        <v>33361</v>
+      <c r="H3" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="I3" s="2">
         <v>28</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="7">
-        <v>43697</v>
+      <c r="K3" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>51</v>
@@ -1175,7 +1194,7 @@
       <c r="Q3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="9"/>
+      <c r="R3" s="8"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
         <v>47</v>
@@ -1203,7 +1222,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
-      <c r="AF3" s="9"/>
+      <c r="AF3" s="8"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
@@ -1212,7 +1231,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
-      <c r="AO3" s="9"/>
+      <c r="AO3" s="8"/>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
       <c r="AR3" s="2"/>
@@ -1243,15 +1262,15 @@
       <c r="G4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="7">
-        <v>29565</v>
+      <c r="H4" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="I4" s="2">
         <v>39</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="7">
-        <v>43697</v>
+      <c r="K4" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>53</v>
@@ -1269,7 +1288,7 @@
       <c r="Q4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="9"/>
+      <c r="R4" s="8"/>
       <c r="S4" s="2" t="s">
         <v>47</v>
       </c>
@@ -1297,7 +1316,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
-      <c r="AF4" s="9"/>
+      <c r="AF4" s="8"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
@@ -1306,7 +1325,7 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
-      <c r="AO4" s="9"/>
+      <c r="AO4" s="8"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
       <c r="AR4" s="2"/>
